--- a/BackTest/2019-10-19 BackTest WTC.xlsx
+++ b/BackTest/2019-10-19 BackTest WTC.xlsx
@@ -965,7 +965,9 @@
       <c r="J12" t="n">
         <v>16</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-69.23076923076923</v>
+      </c>
       <c r="L12" t="n">
         <v>809.2</v>
       </c>
@@ -1016,7 +1018,9 @@
       <c r="J13" t="n">
         <v>18</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-20</v>
+      </c>
       <c r="L13" t="n">
         <v>808.5</v>
       </c>
@@ -1067,7 +1071,9 @@
       <c r="J14" t="n">
         <v>19</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-40</v>
+      </c>
       <c r="L14" t="n">
         <v>808.2</v>
       </c>
@@ -1118,7 +1124,9 @@
       <c r="J15" t="n">
         <v>19</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-25</v>
+      </c>
       <c r="L15" t="n">
         <v>807.8</v>
       </c>
@@ -1169,7 +1177,9 @@
       <c r="J16" t="n">
         <v>21</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>807.8</v>
       </c>
@@ -1220,7 +1230,9 @@
       <c r="J17" t="n">
         <v>22</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>20</v>
+      </c>
       <c r="L17" t="n">
         <v>807.9</v>
       </c>
@@ -1271,7 +1283,9 @@
       <c r="J18" t="n">
         <v>24</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-9.090909090909092</v>
+      </c>
       <c r="L18" t="n">
         <v>807.9</v>
       </c>
